--- a/biology/Médecine/Virus_de_la_grippe_A_(H7N3)/Virus_de_la_grippe_A_(H7N3).xlsx
+++ b/biology/Médecine/Virus_de_la_grippe_A_(H7N3)/Virus_de_la_grippe_A_(H7N3).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sous-type H7N3 du virus de la grippe A fait référence aux types de deux antigènes présents à la surface du virus : l'hémagglutinine de type 7 et la neuraminidase de type 3. Le virus de la grippe A est un virus à ARN monocaténaire de polarité négative à génome segmenté (8 segments) qui appartient au genre Alphainfluenzavirus de la famille des Orthomyxoviridae.
-Il s'agit d'un sous-type faiblement pathogène, à l'origine d'épidémies de grippe aviaire dans des élevages de volailles pouvant déboucher occasionnellement sur des contaminations d'humains[2],[3].
+Il s'agit d'un sous-type faiblement pathogène, à l'origine d'épidémies de grippe aviaire dans des élevages de volailles pouvant déboucher occasionnellement sur des contaminations d'humains,.
 </t>
         </is>
       </c>
